--- a/databases/src/oneAPI_compatibility_map_public.xlsx
+++ b/databases/src/oneAPI_compatibility_map_public.xlsx
@@ -1,45 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\applications.validation.one-diagnostics.source\databases\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821AA20F-ABCB-4DB8-BE94-9755F44B0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680D3C2-5089-4ECD-B250-4423D268F1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" activeTab="1" xr2:uid="{2E238038-D184-481B-A2F5-0125F5FE884A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="870" firstSheet="30" activeTab="34" xr2:uid="{2E238038-D184-481B-A2F5-0125F5FE884A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Linux Bundle 1A2023.1-agm555" sheetId="27" r:id="rId1"/>
-    <sheet name="Linux Bundle 1A2023.1" sheetId="26" r:id="rId2"/>
-    <sheet name="Linux Bundle agm555" sheetId="25" r:id="rId3"/>
-    <sheet name="Linux Bundle 1A2023.0" sheetId="20" r:id="rId4"/>
-    <sheet name="Linux Bundle agm540" sheetId="21" r:id="rId5"/>
-    <sheet name="Linux Bundle 1A2023.0-agm540" sheetId="23" r:id="rId6"/>
-    <sheet name="Linux Bundle agm818" sheetId="22" r:id="rId7"/>
-    <sheet name="Linux Bundle 1A2023.0-agm818" sheetId="24" r:id="rId8"/>
-    <sheet name="Linux Bundle 1A2022.3.1" sheetId="19" r:id="rId9"/>
-    <sheet name="Linux Bundle 1A2022.3.0" sheetId="14" r:id="rId10"/>
-    <sheet name="Linux Bundle agm612" sheetId="17" r:id="rId11"/>
-    <sheet name="Linux Bundle agm815" sheetId="15" r:id="rId12"/>
-    <sheet name="Linux Bundle 1A2022.3.0-agm612" sheetId="18" r:id="rId13"/>
-    <sheet name="Linux Bundle 1A2022.3.0-agm815" sheetId="16" r:id="rId14"/>
-    <sheet name="Linux Bundle 1A2021.4.0" sheetId="1" r:id="rId15"/>
-    <sheet name="Linux Bundle 1A2022.1.0" sheetId="2" r:id="rId16"/>
-    <sheet name="Linux Bundle 1A2022.1.2" sheetId="3" r:id="rId17"/>
-    <sheet name="Linux Bundle agm620" sheetId="4" r:id="rId18"/>
-    <sheet name="Linux Bundle agm643" sheetId="5" r:id="rId19"/>
-    <sheet name="Linux Bundle 1A2021.4.0-agm620" sheetId="10" r:id="rId20"/>
-    <sheet name="Linux Bundle 1A2021.4.0-agm643" sheetId="11" r:id="rId21"/>
-    <sheet name="Linux Bundle 1A2022.1.0-agm643" sheetId="12" r:id="rId22"/>
-    <sheet name="Linux Bundle 1A2022.1.2-agm643" sheetId="13" r:id="rId23"/>
-    <sheet name="Linux Regressions" sheetId="6" r:id="rId24"/>
-    <sheet name="Windows Regressions" sheetId="7" r:id="rId25"/>
-    <sheet name="Linux Latest Versions" sheetId="8" r:id="rId26"/>
-    <sheet name="Windows Latest Versions" sheetId="9" r:id="rId27"/>
+    <sheet name="Linux Bundle 1A2024.0-drv2024.0" sheetId="37" r:id="rId1"/>
+    <sheet name="Linux Bundle drv2024.0" sheetId="36" r:id="rId2"/>
+    <sheet name="Linux Bundle 1A2024.0" sheetId="35" r:id="rId3"/>
+    <sheet name="Windows Bundle 1A-drv2023.2" sheetId="33" r:id="rId4"/>
+    <sheet name="Windows Bundle drv2023.2" sheetId="32" r:id="rId5"/>
+    <sheet name="Windows Bundle 1A2023.2" sheetId="31" r:id="rId6"/>
+    <sheet name="Linux Bundle 1A2023.2-drv2023.2" sheetId="30" r:id="rId7"/>
+    <sheet name="Linux Bundle drv2023.2" sheetId="29" r:id="rId8"/>
+    <sheet name="Linux Bundle 1A2023.2" sheetId="28" r:id="rId9"/>
+    <sheet name="Linux Bundle 1A2023.1-agm555" sheetId="27" r:id="rId10"/>
+    <sheet name="Linux Bundle 1A2023.1" sheetId="26" r:id="rId11"/>
+    <sheet name="Linux Bundle agm555" sheetId="25" r:id="rId12"/>
+    <sheet name="Linux Bundle 1A2023.0" sheetId="20" r:id="rId13"/>
+    <sheet name="Linux Bundle agm540" sheetId="21" r:id="rId14"/>
+    <sheet name="Linux Bundle 1A2023.0-agm540" sheetId="23" r:id="rId15"/>
+    <sheet name="Linux Bundle agm818" sheetId="22" r:id="rId16"/>
+    <sheet name="Linux Bundle 1A2023.0-agm818" sheetId="24" r:id="rId17"/>
+    <sheet name="Linux Bundle 1A2022.3.1" sheetId="19" r:id="rId18"/>
+    <sheet name="Linux Bundle 1A2022.3.0" sheetId="14" r:id="rId19"/>
+    <sheet name="Linux Bundle agm612" sheetId="17" r:id="rId20"/>
+    <sheet name="Linux Bundle agm815" sheetId="15" r:id="rId21"/>
+    <sheet name="Linux Bundle 1A2022.3.0-agm612" sheetId="18" r:id="rId22"/>
+    <sheet name="Linux Bundle 1A2022.3.0-agm815" sheetId="16" r:id="rId23"/>
+    <sheet name="Linux Bundle 1A2021.4.0" sheetId="1" r:id="rId24"/>
+    <sheet name="Linux Bundle 1A2022.1.0" sheetId="2" r:id="rId25"/>
+    <sheet name="Linux Bundle 1A2022.1.2" sheetId="3" r:id="rId26"/>
+    <sheet name="Linux Bundle agm620" sheetId="4" r:id="rId27"/>
+    <sheet name="Linux Bundle agm643" sheetId="5" r:id="rId28"/>
+    <sheet name="Linux Bundle 1A2021.4.0-agm620" sheetId="10" r:id="rId29"/>
+    <sheet name="Linux Bundle 1A2021.4.0-agm643" sheetId="11" r:id="rId30"/>
+    <sheet name="Linux Bundle 1A2022.1.0-agm643" sheetId="12" r:id="rId31"/>
+    <sheet name="Linux Bundle 1A2022.1.2-agm643" sheetId="13" r:id="rId32"/>
+    <sheet name="Linux Regressions" sheetId="6" r:id="rId33"/>
+    <sheet name="Windows Regressions" sheetId="7" r:id="rId34"/>
+    <sheet name="Linux Latest Versions" sheetId="8" r:id="rId35"/>
+    <sheet name="Windows Latest Versions" sheetId="34" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -255,6 +264,42 @@
   </si>
   <si>
     <t>Linux Bundle agm555</t>
+  </si>
+  <si>
+    <t>Linux Bundle drv2023.2</t>
+  </si>
+  <si>
+    <t>Linux Bundle 1A2023.2</t>
+  </si>
+  <si>
+    <t>1.3.26241</t>
+  </si>
+  <si>
+    <t>23.17.26241</t>
+  </si>
+  <si>
+    <t>2023.2.0</t>
+  </si>
+  <si>
+    <t>2021.10.0</t>
+  </si>
+  <si>
+    <t>Linux Bundle 1A2024.0</t>
+  </si>
+  <si>
+    <t>Linux Bundle drv2024.0</t>
+  </si>
+  <si>
+    <t>2024.0.0</t>
+  </si>
+  <si>
+    <t>2021.11.0</t>
+  </si>
+  <si>
+    <t>1.3.26690</t>
+  </si>
+  <si>
+    <t>23.26.26690</t>
   </si>
 </sst>
 </file>
@@ -620,6 +665,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC1D002-3518-4DF6-AF4B-770F85E00E6F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B1EA89-0F87-49CA-B9C1-D4ACF1DE8344}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -655,17 +736,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C61ABB-63C6-4849-8166-D42106D96F59}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C27780-2332-42B7-89BD-8806181D547E}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -682,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,15 +771,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -722,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -738,7 +819,464 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7172189D-B0E2-4A0A-8AB0-79EBE0A1D289}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407490B-7027-4358-A945-821AF073EC8F}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B1B06-1017-419B-B658-6F61FF76EC8E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43203385-111C-4125-A5B1-DF1F9A1AE8F6}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE502A-D26C-418A-9EEF-D89E191C9149}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27627F83-B21D-44C9-B13A-CC5B38CC6C24}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9768591C-D716-4B45-BD68-557727B24BA7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -746,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -754,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -762,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -770,7 +1308,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -778,27 +1316,159 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C61ABB-63C6-4849-8166-D42106D96F59}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CDA306-C8D1-4A08-96E8-F269D916C8F6}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBB4EF6-F8DE-4451-A68E-664910957DF4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,21 +1492,20 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650EBB01-D555-4498-BA34-684E45AD7545}">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CDA306-C8D1-4A08-96E8-F269D916C8F6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +1527,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -866,6 +1535,50 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650EBB01-D555-4498-BA34-684E45AD7545}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -874,7 +1587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D5681-AC92-4ADA-B334-D7E28C3D9155}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -910,7 +1623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A316C-9E1E-4F25-9B6B-E2293B2F1397}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -946,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229E4798-7777-4AEE-9B7F-9FE1C9978462}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1077,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E69C82-5E2C-4AB9-9A28-423D53426D61}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1209,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A5F5BE-8E0F-4026-BB52-9B6B019ADDBA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1340,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E8B647-DFD3-480C-97EA-39E2ACC1FD58}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1383,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34935931-2D2D-4AA7-8CC8-FF6D411A2480}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1426,12 +2139,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C27780-2332-42B7-89BD-8806181D547E}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DD107-711F-4C3C-AFA5-83F3176CD1AD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C3F0ED-E159-4A93-8012-9CBCDF44CF2A}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1453,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1469,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1477,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1485,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1493,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1501,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1509,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1517,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1525,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1533,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1541,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1550,17 +2299,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DD107-711F-4C3C-AFA5-83F3176CD1AD}">
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EC7FA-7B87-4F4A-9C33-89C4DA1B8857}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1578,25 +2327,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EC7FA-7B87-4F4A-9C33-89C4DA1B8857}">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA1B220-CF86-4557-895D-83B3AB4A42F3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+      <selection activeCell="A3" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1609,7 +2358,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1622,17 +2371,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA1B220-CF86-4557-895D-83B3AB4A42F3}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30164D7E-2FF4-4F0A-B0BE-6B8A754CF550}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1645,7 +2394,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1658,43 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30164D7E-2FF4-4F0A-B0BE-6B8A754CF550}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE89C9A-436F-4C0B-B91A-9AF1CF82D6E4}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1717,7 +2430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EB5F2-8692-4A62-A589-80CE85BEE0A6}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1740,12 +2453,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB6B6D-39A3-4DC8-9002-0FF3B1A8DD34}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1775,7 +2488,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1783,7 +2496,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C4" s="3"/>
       <c r="E4" s="3"/>
@@ -1793,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1801,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1809,7 +2522,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1817,7 +2530,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1825,7 +2538,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1833,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1841,7 +2554,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1849,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1857,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1865,7 +2578,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,7 +2586,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1882,17 +2595,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1A7B3E-284F-4AF9-BAD9-7554161F7352}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30112F-39DD-43BD-A366-01D38AC442DC}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,17 +2617,168 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7172189D-B0E2-4A0A-8AB0-79EBE0A1D289}">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065F9852-D3B1-4DC8-AB1B-BD9E27589659}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E376E764-338C-42A4-9A4C-1A2A842AD56C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,7 +2800,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1940,20 +2808,20 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407490B-7027-4358-A945-821AF073EC8F}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D20497-6080-42E6-AA06-A099AFE2D779}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1975,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1983,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,7 +2859,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1999,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2007,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2015,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2023,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2031,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2039,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2047,7 +2915,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,23 +2923,15 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2080,12 +2940,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511B1B06-1017-419B-B658-6F61FF76EC8E}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA49825-077F-4A66-9E8C-450827457486}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AABF171-F06D-4659-A721-C9C2439FFFFF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2115,122 +3011,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43203385-111C-4125-A5B1-DF1F9A1AE8F6}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EE502A-D26C-418A-9EEF-D89E191C9149}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27627F83-B21D-44C9-B13A-CC5B38CC6C24}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2239,16 +3020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9768591C-D716-4B45-BD68-557727B24BA7}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7C5D-FF9A-48C3-A82D-CE49C6319349}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2265,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2273,15 +3054,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
+      <c r="B4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2289,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2297,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2305,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2313,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2321,15 +3102,15 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2337,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2345,23 +3126,15 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
